--- a/Unity/Assets/Config/Excel/CellChapterConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellChapterConfig.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B86EC-9149-431A-9C85-32A4A840DD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -24,133 +27,103 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>章节名称</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>章节关卡</t>
+  </si>
+  <si>
+    <t>ChapterName</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>RandomArea</t>
+  </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChapterName</t>
-  </si>
-  <si>
-    <t>章节名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初章</t>
+  </si>
+  <si>
+    <t>洛兰森林</t>
   </si>
   <si>
     <t>10001,10002,10003,10004,10005,10006,10007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序章</t>
+  </si>
+  <si>
+    <t>古城遗迹</t>
   </si>
   <si>
     <t>20001,20002,20003,20004,20005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下魔窟</t>
   </si>
   <si>
     <t>30001,30002,30003,30004,30005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终章</t>
+  </si>
+  <si>
+    <t>精灵国度</t>
   </si>
   <si>
     <t>40001,40002,40003,40004,40005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗深渊</t>
   </si>
   <si>
     <t>50001,50002,50003,50004,50005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛兰森林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古城遗迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下魔窟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵国度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗深渊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -158,23 +131,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,11 +139,175 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,24 +316,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -268,17 +575,6 @@
       <right style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
       <top style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </top>
@@ -292,80 +588,375 @@
       <right style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.149998474074526"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center"/>
+      <border>
         <left style="hair">
           <color theme="1" tint="0.499984740745262"/>
         </left>
@@ -382,28 +973,22 @@
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.149998474074526"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center"/>
+      <border>
         <left style="hair">
           <color theme="1" tint="0.499984740745262"/>
         </left>
@@ -420,28 +1005,22 @@
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.149998474074526"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center"/>
+      <border>
         <left style="hair">
           <color theme="1" tint="0.499984740745262"/>
         </left>
@@ -456,72 +1035,11 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -530,22 +1048,22 @@
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
   <Schema ID="Schema3">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="DateArea">
+    <xsd:schema xmlns="" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+      <xsd:element name="DateArea" nillable="true">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="date" form="unqualified">
+            <xsd:element form="unqualified" maxOccurs="unbounded" minOccurs="0" name="date" nillable="true">
               <xsd:complexType>
-                <xsd:attribute name="ID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="ItemName" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="ItemIcon" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="ItemQuality" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="ItemLv" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="ItemType" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="ItemSubType" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="ItemEquipID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="ItemDes" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="ItemBlackDes" form="unqualified" type="xsd:string"/>
+                <xsd:attribute form="unqualified" name="ID" type="xsd:string"/>
+                <xsd:attribute form="unqualified" name="ItemName" type="xsd:string"/>
+                <xsd:attribute form="unqualified" name="ItemIcon" type="xsd:string"/>
+                <xsd:attribute form="unqualified" name="ItemQuality" type="xsd:string"/>
+                <xsd:attribute form="unqualified" name="ItemLv" type="xsd:string"/>
+                <xsd:attribute form="unqualified" name="ItemType" type="xsd:string"/>
+                <xsd:attribute form="unqualified" name="ItemSubType" type="xsd:string"/>
+                <xsd:attribute form="unqualified" name="ItemEquipID" type="xsd:string"/>
+                <xsd:attribute form="unqualified" name="ItemDes" type="xsd:string"/>
+                <xsd:attribute form="unqualified" name="ItemBlackDes" type="xsd:string"/>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -558,17 +1076,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:F5" tableType="xml" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="C4:F5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:F5" tableType="xml" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:F5" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="Id" dataDxfId="2">
+    <tableColumn id="1" name="Id" uniqueName="ID" dataDxfId="0">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ItemName" name="ChapterName" dataDxfId="1">
+    <tableColumn id="2" name="ChapterName" uniqueName="ItemName" dataDxfId="1">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ItemName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4C565A23-5361-4017-AA40-49BC4E1614FE}" uniqueName="3" name="Name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="RandomArea" dataDxfId="0"/>
+    <tableColumn id="3" name="Name" uniqueName="3"/>
+    <tableColumn id="4" name="RandomArea" uniqueName="4" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -617,7 +1135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,26 +1168,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,23 +1203,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -889,156 +1373,156 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="8" t="s">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
-    <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>5</v>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C7" s="9">
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C9" s="9">
         <v>4</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="10" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C10" s="9">
         <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>